--- a/Gerência de Qualidade/Planilha GQA.xlsx
+++ b/Gerência de Qualidade/Planilha GQA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean\Documents\UFG\4Semestre\Processo de Software\Trabalho-Execução\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josimar\Documents\GitHub\Trabalho-processo-software-pratica-parte2\Gerência de Qualidade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7905" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -188,13 +188,22 @@
   </si>
   <si>
     <t>Documento de Definição de Processo de Garantia de Qualidade</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -315,8 +324,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +370,24 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -709,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -894,6 +929,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1660,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1800,7 +1850,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
@@ -1874,7 +1924,7 @@
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Medi%C3%A7%C3%B5es%20de%20controle%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="25"/>
@@ -1987,7 +2037,7 @@
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="29" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -2053,7 +2103,7 @@
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20auditoria%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="69" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="25"/>
@@ -2194,7 +2244,7 @@
     <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="29" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -3900,7 +3950,7 @@
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Recursos%20Humanos.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D75" s="66" t="s">
+      <c r="D75" s="68" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="25"/>
@@ -4041,7 +4091,7 @@
     <row r="80" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24"/>
       <c r="B80" s="29" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
@@ -4107,7 +4157,7 @@
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D82" s="52" t="str">
+      <c r="D82" s="70" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
@@ -4249,7 +4299,7 @@
     <row r="87" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24"/>
       <c r="B87" s="29" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
@@ -4315,7 +4365,7 @@
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D89" s="52" t="str">
+      <c r="D89" s="71" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
@@ -4457,7 +4507,7 @@
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="24"/>
       <c r="B94" s="29" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C94" s="30"/>
       <c r="D94" s="30"/>
@@ -4523,7 +4573,7 @@
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20auditoria%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D96" s="66" t="s">
+      <c r="D96" s="69" t="s">
         <v>36</v>
       </c>
       <c r="E96" s="25"/>
@@ -4664,7 +4714,7 @@
     <row r="101" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24"/>
       <c r="B101" s="29" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C101" s="30"/>
       <c r="D101" s="30"/>
@@ -4730,7 +4780,7 @@
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20acompanhamento%20de%20n%C3%A3o-conformidades.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D103" s="66" t="s">
+      <c r="D103" s="69" t="s">
         <v>36</v>
       </c>
       <c r="E103" s="25"/>
@@ -4871,7 +4921,7 @@
     <row r="108" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24"/>
       <c r="B108" s="29" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C108" s="30"/>
       <c r="D108" s="30"/>
@@ -4917,6 +4967,6 @@
     <hyperlink ref="D28" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Gerência de Qualidade/Planilha GQA.xlsx
+++ b/Gerência de Qualidade/Planilha GQA.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josimar\Documents\GitHub\Trabalho-processo-software-pratica-parte2\Gerência de Qualidade\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7905" tabRatio="987" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
     <sheet name="GQA" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -197,13 +192,16 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -333,7 +331,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +386,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -744,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -818,9 +822,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -945,9 +946,15 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1102,7 +1109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,7 +1144,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1314,26 +1321,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.5703125"/>
     <col min="2" max="2" width="160.85546875"/>
     <col min="3" max="12" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1361,7 +1368,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1391,7 +1398,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -1421,7 +1428,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -1451,7 +1458,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -1481,7 +1488,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -1511,7 +1518,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="18.75" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -1541,7 +1548,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="17.25" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -1571,7 +1578,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -1601,7 +1608,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>8</v>
@@ -1631,7 +1638,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
         <v>9</v>
@@ -1661,7 +1668,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="18.75" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -1691,15 +1698,15 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:26" ht="12" customHeight="1"/>
+    <row r="14" spans="1:26" ht="12" customHeight="1"/>
+    <row r="15" spans="1:26" ht="12" customHeight="1"/>
+    <row r="16" spans="1:26" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" ht="12" customHeight="1"/>
+    <row r="19" ht="12" customHeight="1"/>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1707,14 +1714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="105.28515625"/>
     <col min="2" max="2" width="13.28515625"/>
@@ -1722,7 +1729,7 @@
     <col min="6" max="15" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
@@ -1752,7 +1759,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
@@ -1782,7 +1789,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="54" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -1820,11 +1827,11 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="24" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1850,11 +1857,11 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="110.25" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -1880,16 +1887,16 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="25"/>
-      <c r="C6" s="63" t="str">
+      <c r="C6" s="62" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Medi%C3%A7%C3%B5es%20de%20controle%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="25"/>
@@ -1915,16 +1922,16 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="25"/>
-      <c r="C7" s="63" t="str">
+      <c r="C7" s="62" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Medi%C3%A7%C3%B5es%20de%20controle%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="25"/>
@@ -1950,12 +1957,12 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
+    <row r="8" spans="1:26" ht="12" customHeight="1">
+      <c r="A8" s="63"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="65"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1978,12 +1985,12 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
+    <row r="9" spans="1:26" ht="12" customHeight="1">
+      <c r="A9" s="63"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="65"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2006,12 +2013,12 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
+    <row r="10" spans="1:26" ht="12" customHeight="1">
+      <c r="A10" s="63"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="65"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2034,14 +2041,14 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:26" ht="12" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2064,11 +2071,11 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="78.75" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -2094,16 +2101,16 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="12" customHeight="1">
       <c r="A13" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="63" t="str">
+      <c r="C13" s="62" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20auditoria%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="68" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="25"/>
@@ -2129,7 +2136,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="12" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
@@ -2157,7 +2164,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="12" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -2185,7 +2192,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="12" customHeight="1">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -2213,7 +2220,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="12" customHeight="1">
       <c r="A17" s="24"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2241,14 +2248,14 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="1:26" ht="12" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2271,11 +2278,11 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="58.5" customHeight="1">
       <c r="A19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -2301,16 +2308,16 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="12" customHeight="1">
       <c r="A20" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="63" t="str">
+      <c r="C20" s="62" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20registros%20de%20n%C3%A3o-conformidades.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="25"/>
@@ -2336,16 +2343,16 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="12" customHeight="1">
       <c r="A21" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="52" t="str">
+      <c r="C21" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20solicita%C3%A7%C3%A3o%20de%20mudan%C3%A7as.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="25"/>
@@ -2371,7 +2378,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="12" customHeight="1">
       <c r="A22" s="24"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -2399,7 +2406,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="12" customHeight="1">
       <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2427,7 +2434,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="12" customHeight="1">
       <c r="A24" s="24"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -2455,7 +2462,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="12" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -2483,14 +2490,14 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+    <row r="26" spans="1:26" ht="12" customHeight="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="1"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2513,11 +2520,11 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="97.5" customHeight="1">
       <c r="A27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -2543,16 +2550,16 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="12" customHeight="1">
       <c r="A28" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="63" t="str">
+      <c r="C28" s="62" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20acompanhamento%20de%20n%C3%A3o-conformidades.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="25"/>
@@ -2578,7 +2585,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="12" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -2606,7 +2613,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="12" customHeight="1">
       <c r="A30" s="24"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -2634,7 +2641,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="12" customHeight="1">
       <c r="A31" s="24"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -2662,7 +2669,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="12" customHeight="1">
       <c r="A32" s="24"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2690,14 +2697,14 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
+    <row r="33" spans="1:26" ht="12" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="1"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -2720,12 +2727,12 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="1"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -2748,14 +2755,14 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:26" ht="15" customHeight="1">
+      <c r="A35" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="1"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2778,14 +2785,14 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A36" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="1"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2808,14 +2815,14 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:26" ht="12" customHeight="1">
+      <c r="A37" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="1"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2838,14 +2845,14 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
+    <row r="38" spans="1:26" ht="58.5" customHeight="1">
+      <c r="A38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="51"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="1"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2868,12 +2875,12 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="12" customHeight="1">
       <c r="A39" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="25"/>
-      <c r="C39" s="52" t="str">
+      <c r="C39" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Monitoramento%20do%20Cronograma.xlsx","X")</f>
         <v>X</v>
       </c>
@@ -2903,7 +2910,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="12" customHeight="1">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -2931,7 +2938,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="12" customHeight="1">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -2959,7 +2966,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="12" customHeight="1">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -2987,7 +2994,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="12" customHeight="1">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3015,14 +3022,14 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="12" customHeight="1">
       <c r="A44" s="24"/>
-      <c r="B44" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
+      <c r="B44" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="1"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3045,14 +3052,14 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="53" t="s">
+    <row r="45" spans="1:26" ht="15" customHeight="1">
+      <c r="A45" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="51"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="1"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3075,14 +3082,14 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="56" t="s">
+    <row r="46" spans="1:26" ht="83.25" customHeight="1">
+      <c r="A46" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="51"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="50"/>
       <c r="F46" s="1"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -3105,12 +3112,12 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="12" customHeight="1">
       <c r="A47" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="25"/>
-      <c r="C47" s="52" t="str">
+      <c r="C47" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Projeto.docx","X")</f>
         <v>X</v>
       </c>
@@ -3140,7 +3147,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="12" customHeight="1">
       <c r="A48" s="24"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -3168,7 +3175,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="12" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -3196,7 +3203,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="12" customHeight="1">
       <c r="A50" s="24"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -3224,7 +3231,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="12" customHeight="1">
       <c r="A51" s="24"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -3252,14 +3259,14 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="12" customHeight="1">
       <c r="A52" s="24"/>
-      <c r="B52" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
+      <c r="B52" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="1"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -3282,14 +3289,14 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56" t="s">
+    <row r="53" spans="1:26" ht="44.25" customHeight="1">
+      <c r="A53" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="51"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="50"/>
       <c r="F53" s="1"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -3312,16 +3319,16 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="12" customHeight="1">
       <c r="A54" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="25"/>
-      <c r="C54" s="52" t="str">
+      <c r="C54" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Monitoramento%20do%20Cronograma.xlsx","X")</f>
         <v>X</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="25"/>
@@ -3347,7 +3354,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="12" customHeight="1">
       <c r="A55" s="24"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3375,7 +3382,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="12" customHeight="1">
       <c r="A56" s="24"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -3403,7 +3410,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="12" customHeight="1">
       <c r="A57" s="24"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -3431,7 +3438,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="12" customHeight="1">
       <c r="A58" s="24"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -3459,14 +3466,14 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="12" customHeight="1">
       <c r="A59" s="24"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="31"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="1"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3489,14 +3496,14 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56" t="s">
+    <row r="60" spans="1:26" ht="48.75" customHeight="1">
+      <c r="A60" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="51"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="50"/>
       <c r="F60" s="1"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -3519,16 +3526,16 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="12" customHeight="1">
       <c r="A61" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="25"/>
-      <c r="C61" s="52" t="str">
+      <c r="C61" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Monitoramento%20do%20Cronograma.xlsx","X")</f>
         <v>X</v>
       </c>
-      <c r="D61" s="27" t="str">
+      <c r="D61" s="72" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Monitoramento%20do%20Cronograma.xlsx","X")</f>
         <v>X</v>
       </c>
@@ -3555,7 +3562,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="12" customHeight="1">
       <c r="A62" s="24"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -3583,7 +3590,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="12" customHeight="1">
       <c r="A63" s="24"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -3611,7 +3618,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="12" customHeight="1">
       <c r="A64" s="24"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -3639,7 +3646,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="12" customHeight="1">
       <c r="A65" s="24"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -3667,14 +3674,14 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="12" customHeight="1">
       <c r="A66" s="24"/>
-      <c r="B66" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31"/>
+      <c r="B66" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="30"/>
       <c r="F66" s="1"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -3697,14 +3704,14 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56" t="s">
+    <row r="67" spans="1:26" ht="60.75" customHeight="1">
+      <c r="A67" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="51"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="1"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -3727,16 +3734,16 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="12" customHeight="1">
       <c r="A68" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B68" s="25"/>
-      <c r="C68" s="52" t="str">
+      <c r="C68" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Recursos%20Humanos.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D68" s="66" t="s">
+      <c r="D68" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="25"/>
@@ -3762,16 +3769,16 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="12" customHeight="1">
       <c r="A69" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B69" s="25"/>
-      <c r="C69" s="52" t="str">
+      <c r="C69" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Projeto.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="25"/>
@@ -3797,7 +3804,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="12" customHeight="1">
       <c r="A70" s="24"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -3825,7 +3832,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="12" customHeight="1">
       <c r="A71" s="24"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -3853,7 +3860,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="12" customHeight="1">
       <c r="A72" s="24"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -3881,14 +3888,14 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="12" customHeight="1">
       <c r="A73" s="24"/>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="31"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="30"/>
       <c r="F73" s="1"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -3911,14 +3918,14 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="56" t="s">
+    <row r="74" spans="1:26" ht="65.25" customHeight="1">
+      <c r="A74" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="51"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="50"/>
       <c r="F74" s="1"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -3941,16 +3948,16 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="12" customHeight="1">
       <c r="A75" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B75" s="25"/>
-      <c r="C75" s="52" t="str">
+      <c r="C75" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Recursos%20Humanos.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D75" s="68" t="s">
+      <c r="D75" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="25"/>
@@ -3976,7 +3983,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="12" customHeight="1">
       <c r="A76" s="24"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -4004,7 +4011,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="12" customHeight="1">
       <c r="A77" s="24"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -4032,7 +4039,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="12" customHeight="1">
       <c r="A78" s="24"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -4060,7 +4067,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="12" customHeight="1">
       <c r="A79" s="24"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -4088,14 +4095,14 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="12" customHeight="1">
       <c r="A80" s="24"/>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="31"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="1"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -4118,14 +4125,14 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="56" t="s">
+    <row r="81" spans="1:26" ht="59.25" customHeight="1">
+      <c r="A81" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="51"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="50"/>
       <c r="F81" s="1"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -4148,16 +4155,16 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="12" customHeight="1">
       <c r="A82" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B82" s="25"/>
-      <c r="C82" s="52" t="str">
+      <c r="C82" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D82" s="70" t="str">
+      <c r="D82" s="69" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
@@ -4184,7 +4191,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="12" customHeight="1">
       <c r="A83" s="24"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -4212,7 +4219,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="12" customHeight="1">
       <c r="A84" s="24"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -4240,7 +4247,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="12" customHeight="1">
       <c r="A85" s="24"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -4268,7 +4275,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="12" customHeight="1">
       <c r="A86" s="24"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -4296,14 +4303,14 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="12" customHeight="1">
       <c r="A87" s="24"/>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="31"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="30"/>
       <c r="F87" s="1"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -4326,14 +4333,14 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="56" t="s">
+    <row r="88" spans="1:26" ht="71.25" customHeight="1">
+      <c r="A88" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="51"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="50"/>
       <c r="F88" s="1"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -4356,16 +4363,16 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="12" customHeight="1">
       <c r="A89" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B89" s="25"/>
-      <c r="C89" s="52" t="str">
+      <c r="C89" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D89" s="71" t="str">
+      <c r="D89" s="70" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
@@ -4392,7 +4399,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="12" customHeight="1">
       <c r="A90" s="24"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -4420,7 +4427,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="12" customHeight="1">
       <c r="A91" s="24"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -4448,7 +4455,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="12" customHeight="1">
       <c r="A92" s="24"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -4476,7 +4483,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="12" customHeight="1">
       <c r="A93" s="24"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4504,14 +4511,14 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="24"/>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="31"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="30"/>
       <c r="F94" s="1"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -4534,14 +4541,14 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="56" t="s">
+    <row r="95" spans="1:26" ht="69.75" customHeight="1">
+      <c r="A95" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="51"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="50"/>
       <c r="F95" s="1"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -4564,16 +4571,16 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="12" customHeight="1">
       <c r="A96" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="25"/>
-      <c r="C96" s="52" t="str">
+      <c r="C96" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20auditoria%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D96" s="69" t="s">
+      <c r="D96" s="68" t="s">
         <v>36</v>
       </c>
       <c r="E96" s="25"/>
@@ -4599,7 +4606,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="12" customHeight="1">
       <c r="A97" s="24"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -4627,7 +4634,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="12" customHeight="1">
       <c r="A98" s="24"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -4655,7 +4662,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="12" customHeight="1">
       <c r="A99" s="24"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -4683,7 +4690,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="12" customHeight="1">
       <c r="A100" s="24"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -4711,14 +4718,14 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="12" customHeight="1">
       <c r="A101" s="24"/>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="30"/>
       <c r="F101" s="1"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -4741,14 +4748,14 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="56" t="s">
+    <row r="102" spans="1:26" ht="60" customHeight="1">
+      <c r="A102" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="51"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="50"/>
       <c r="F102" s="1"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -4771,16 +4778,16 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="12" customHeight="1">
       <c r="A103" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B103" s="25"/>
-      <c r="C103" s="52" t="str">
+      <c r="C103" s="51" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20acompanhamento%20de%20n%C3%A3o-conformidades.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D103" s="69" t="s">
+      <c r="D103" s="68" t="s">
         <v>36</v>
       </c>
       <c r="E103" s="25"/>
@@ -4806,7 +4813,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="12" customHeight="1">
       <c r="A104" s="24"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -4834,7 +4841,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="12" customHeight="1">
       <c r="A105" s="24"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
@@ -4862,7 +4869,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="12" customHeight="1">
       <c r="A106" s="24"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
@@ -4890,7 +4897,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="12" customHeight="1">
       <c r="A107" s="24"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
@@ -4918,14 +4925,14 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="12" customHeight="1">
       <c r="A108" s="24"/>
-      <c r="B108" s="29" t="s">
+      <c r="B108" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="31"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="1"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -4948,7 +4955,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:26" ht="12" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D96" r:id="rId1"/>

--- a/Gerência de Qualidade/Planilha GQA.xlsx
+++ b/Gerência de Qualidade/Planilha GQA.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josimar\Documents\GitHub\Trabalho-processo-software-pratica-parte2\Gerência de Qualidade\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7905" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
-    <sheet name="GQA" sheetId="4" r:id="rId2"/>
+    <sheet name="GQA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -55,6 +60,9 @@
     <t>Coluna I,J: Utilizado pela empresa para inserir mais colunas, se necessário; insira o nome do projeto e preencha com "x" se a EO estiver associada ao projeto.</t>
   </si>
   <si>
+    <t>Garantia da Qualidade</t>
+  </si>
+  <si>
     <t>PREENCHIDO PELA EMPRESA</t>
   </si>
   <si>
@@ -73,7 +81,47 @@
     <t>Final</t>
   </si>
   <si>
-    <t>(T,L,P,N,NA)</t>
+    <t>O propósito do processo Garantia da Qualidade é assegurar que os produtos de trabalho e a execução dos processos estejam em conformidade com os planos, procedimentos e padrões estabelecidos.</t>
+  </si>
+  <si>
+    <t>GQA 1. A aderência dos produtos de trabalho aos padrões, procedimentos e requisitos aplicáveis é avaliada objetivamente, antes dos produtos serem entregues e em marcos predefinidos ao longo do ciclo de vida do projeto.
+As evidências apresentadas para este resultado permitem assegurar que existem registros de avaliações objetivas dos produtos de trabalho gerados em relação a padrões, procedimentos e requisitos aplicáveis, antes dos produtos serem entregues e nos marcos definidos para o projeto? Obs: avaliações objetivas são realizadas por um grupo que não esteve envolvido diretamente na elaboração desses produtos de trabalho com base em critérios que minimizem a subjetividade e o viés do revisor.</t>
+  </si>
+  <si>
+    <t>Medições de controle de qualidade [v1]</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Medições de controle de qualidade [v2]</t>
+  </si>
+  <si>
+    <t>Monitoramento do Cronograma</t>
+  </si>
+  <si>
+    <t>GQA 2. A aderência dos processos executados às descrições de processo, padrões e procedimentos é avaliada objetivamente.
+As evidências apresentadas para este resultado permitem assegurar que existem registros de avaliações objetivas dos processos executados em relação a descrições de processo, padrões e procedimentos, ao longo do ciclo de vida? Obs: avaliações objetivas são realizadas por um grupo que não esteve envolvido diretamente na execução destas atividades com base em critérios que minimizem a subjetividade e o viés do revisor.</t>
+  </si>
+  <si>
+    <t>Documento de auditoria de qualidade</t>
+  </si>
+  <si>
+    <t>GQA 3. Os problemas e as não-conformidades são identificados, registrados e comunicados. 
+As evidências apresentadas para este resultado permitem assegurar que  há registros dos problemas e das não-conformidades identificadas nas avaliações e que estes são comunicados aos responsáveis pelos produtos/processos aplicáveis?</t>
+  </si>
+  <si>
+    <t>Documento de registros de não-conformidades [v1]</t>
+  </si>
+  <si>
+    <t>Documento de solicitação de mudanças</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQA 4. Ações corretivas para as não-conformidades são estabelecidas e acompanhadas até as suas efetivas conclusões. Quando necessário, o escalonamento das ações corretivas para níveis superiores é realizado, de forma a garantir sua solução.
+As evidências apresentadas para este resultado permitem assegurar: (i) que foram definidas ações corretivas para as não-conformidades e que elas foram acompanhadas até a sua conclusão? (ii) que, quando necessário, as não-conformidades não resolvidas foram escalonadas para níveis superiores visando a efetivação das ações corretivas, conforme mecanismo estabelecido? </t>
+  </si>
+  <si>
+    <t>Documento de acompanhamento de não-conformidades [v1]</t>
   </si>
   <si>
     <t>Atributos de Processo</t>
@@ -89,6 +137,9 @@
     <t>Plano de Monitoramento do Cronograma</t>
   </si>
   <si>
+    <t>Plano de Projeto</t>
+  </si>
+  <si>
     <t>AP 2.1 O processo é gerenciado</t>
   </si>
   <si>
@@ -121,6 +172,9 @@
 As evidências apresentadas para este resultado permitem assegurar que foi fornecido treinamento  formal (cursos) ou informal (mentoring) para a execução do processo? (Considerar que, quando o indivíduo já possui o perfil e habilidades para executar o processo, o treinamento é dispensável.)</t>
   </si>
   <si>
+    <t>Documento de Definição de Processo de Garantia de Qualidade</t>
+  </si>
+  <si>
     <t>RAP 8. A comunicação entre as partes interessadas no processo é planejada e executada de forma a garantir o seu envolvimento.
 As evidências apresentadas para este resultado permitem assegurar que: (i) foi planejada a comunicação entre as partes interessadas no processo?; (ii) este planejamento foi monitorado?; (iii) existe evidência de que a comunicação ocorre de forma a garantir o envolvimento das partes interessadas?</t>
   </si>
@@ -139,69 +193,23 @@
     <t>Documento de acompanhamento de não-conformidades</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Garantia da Qualidade</t>
-  </si>
-  <si>
-    <t>O propósito do processo Garantia da Qualidade é assegurar que os produtos de trabalho e a execução dos processos estejam em conformidade com os planos, procedimentos e padrões estabelecidos.</t>
-  </si>
-  <si>
-    <t>GQA 1. A aderência dos produtos de trabalho aos padrões, procedimentos e requisitos aplicáveis é avaliada objetivamente, antes dos produtos serem entregues e em marcos predefinidos ao longo do ciclo de vida do projeto.
-As evidências apresentadas para este resultado permitem assegurar que existem registros de avaliações objetivas dos produtos de trabalho gerados em relação a padrões, procedimentos e requisitos aplicáveis, antes dos produtos serem entregues e nos marcos definidos para o projeto? Obs: avaliações objetivas são realizadas por um grupo que não esteve envolvido diretamente na elaboração desses produtos de trabalho com base em critérios que minimizem a subjetividade e o viés do revisor.</t>
-  </si>
-  <si>
-    <t>Medições de controle de qualidade [v1]</t>
-  </si>
-  <si>
-    <t>Medições de controle de qualidade [v2]</t>
-  </si>
-  <si>
-    <t>GQA 2. A aderência dos processos executados às descrições de processo, padrões e procedimentos é avaliada objetivamente.
-As evidências apresentadas para este resultado permitem assegurar que existem registros de avaliações objetivas dos processos executados em relação a descrições de processo, padrões e procedimentos, ao longo do ciclo de vida? Obs: avaliações objetivas são realizadas por um grupo que não esteve envolvido diretamente na execução destas atividades com base em critérios que minimizem a subjetividade e o viés do revisor.</t>
-  </si>
-  <si>
-    <t>Documento de auditoria de qualidade</t>
-  </si>
-  <si>
-    <t>GQA 3. Os problemas e as não-conformidades são identificados, registrados e comunicados. 
-As evidências apresentadas para este resultado permitem assegurar que  há registros dos problemas e das não-conformidades identificadas nas avaliações e que estes são comunicados aos responsáveis pelos produtos/processos aplicáveis?</t>
-  </si>
-  <si>
-    <t>Documento de registros de não-conformidades [v1]</t>
-  </si>
-  <si>
-    <t>Documento de solicitação de mudanças</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQA 4. Ações corretivas para as não-conformidades são estabelecidas e acompanhadas até as suas efetivas conclusões. Quando necessário, o escalonamento das ações corretivas para níveis superiores é realizado, de forma a garantir sua solução.
-As evidências apresentadas para este resultado permitem assegurar: (i) que foram definidas ações corretivas para as não-conformidades e que elas foram acompanhadas até a sua conclusão? (ii) que, quando necessário, as não-conformidades não resolvidas foram escalonadas para níveis superiores visando a efetivação das ações corretivas, conforme mecanismo estabelecido? </t>
-  </si>
-  <si>
-    <t>Documento de acompanhamento de não-conformidades [v1]</t>
-  </si>
-  <si>
-    <t>Documento de Definição de Processo de Garantia de Qualidade</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -244,9 +252,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -262,6 +284,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000D4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -287,14 +317,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF0000D4"/>
       <name val="Times New Roman"/>
@@ -309,15 +331,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0563C1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -331,7 +354,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,19 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +763,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -805,11 +822,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,31 +842,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,138 +890,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1077,39 +1066,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1144,7 +1133,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,159 +1177,184 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="160.85546875"/>
-    <col min="3" max="12" width="8.5703125"/>
+    <col min="1" max="1" width="8.42578125"/>
+    <col min="2" max="2" width="159"/>
+    <col min="3" max="12" width="8.42578125"/>
+    <col min="13" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1368,7 +1382,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="18" customHeight="1">
+    <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1398,7 +1412,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -1428,7 +1442,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="19.5" customHeight="1">
+    <row r="4" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -1458,7 +1472,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="18" customHeight="1">
+    <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -1488,7 +1502,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1">
+    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -1518,7 +1532,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="18.75" customHeight="1">
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -1548,7 +1562,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="17.25" customHeight="1">
+    <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -1578,7 +1592,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" customHeight="1">
+    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -1608,7 +1622,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="16.5" customHeight="1">
+    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>8</v>
@@ -1638,7 +1652,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
         <v>9</v>
@@ -1668,7 +1682,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="18.75" customHeight="1">
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -1698,15 +1712,15 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="12" customHeight="1"/>
-    <row r="14" spans="1:26" ht="12" customHeight="1"/>
-    <row r="15" spans="1:26" ht="12" customHeight="1"/>
-    <row r="16" spans="1:26" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
+    <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1714,24 +1728,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="105.28515625"/>
-    <col min="2" max="2" width="13.28515625"/>
+    <col min="1" max="1" width="104.140625"/>
+    <col min="2" max="2" width="13.140625"/>
     <col min="3" max="5" width="3.28515625"/>
-    <col min="6" max="15" width="9"/>
+    <col min="6" max="15" width="8.7109375"/>
+    <col min="16" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1">
+    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1759,9 +1774,9 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -1789,21 +1804,21 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="54" customHeight="1">
+    <row r="3" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
@@ -1827,14 +1842,14 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="24" customHeight="1">
+    <row r="4" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1857,14 +1872,14 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="110.25" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+    <row r="5" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1887,19 +1902,19 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="62" t="str">
+    <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Medi%C3%A7%C3%B5es%20de%20controle%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D6" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="25"/>
+      <c r="D6" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="27"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1922,19 +1937,19 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="12" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="62" t="str">
+    <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Medi%C3%A7%C3%B5es%20de%20controle%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="27"/>
       <c r="F7" s="1"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1957,12 +1972,16 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="64"/>
+    <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1985,12 +2004,12 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="64"/>
+    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2013,12 +2032,12 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="64"/>
+    <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2041,14 +2060,14 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
+    <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2071,14 +2090,14 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="78.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+    <row r="12" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2101,19 +2120,19 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="12" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="62" t="str">
+    <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20auditoria%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D13" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="25"/>
+      <c r="D13" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="27"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2136,12 +2155,12 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="12" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2164,12 +2183,12 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2192,12 +2211,12 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2220,12 +2239,12 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="1"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2248,14 +2267,14 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2278,14 +2297,14 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+    <row r="19" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2308,19 +2327,19 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="62" t="str">
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20registros%20de%20n%C3%A3o-conformidades.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D20" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="25"/>
+      <c r="D20" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="27"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2343,19 +2362,19 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="51" t="str">
+    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20solicita%C3%A7%C3%A3o%20de%20mudan%C3%A7as.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D21" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="25"/>
+      <c r="D21" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="27"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2378,12 +2397,12 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2406,12 +2425,12 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2434,12 +2453,12 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2462,12 +2481,12 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="1"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2490,14 +2509,14 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="1"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2520,14 +2539,14 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="97.5" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+    <row r="27" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2550,19 +2569,19 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="12" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="62" t="str">
+    <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20acompanhamento%20de%20n%C3%A3o-conformidades.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D28" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="25"/>
+      <c r="D28" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="27"/>
       <c r="F28" s="1"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2585,12 +2604,12 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="12" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+    <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="1"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2613,12 +2632,12 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="12" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+    <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="1"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -2641,12 +2660,12 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="12" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+    <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="1"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2669,12 +2688,12 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="12" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+    <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="1"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2697,14 +2716,14 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="12" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32" t="s">
+    <row r="33" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="1"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -2727,12 +2746,12 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="1"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -2755,14 +2774,14 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="15" customHeight="1">
-      <c r="A35" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
+    <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="1"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2785,14 +2804,14 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="1"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2815,14 +2834,14 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="12" customHeight="1">
-      <c r="A37" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
+    <row r="37" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="1"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2845,14 +2864,14 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A38" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
+    <row r="38" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="1"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2875,19 +2894,19 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="12" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="51" t="str">
+    <row r="39" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Monitoramento%20do%20Cronograma.xlsx","X")</f>
         <v>X</v>
       </c>
-      <c r="D39" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="25"/>
+      <c r="D39" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="27"/>
       <c r="F39" s="1"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2910,12 +2929,16 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="12" customHeight="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+    <row r="40" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="27"/>
       <c r="F40" s="1"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2938,12 +2961,12 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="12" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+    <row r="41" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="1"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2966,12 +2989,12 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="12" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+    <row r="42" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="1"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2994,12 +3017,12 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="12" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+    <row r="43" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="1"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3022,14 +3045,14 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="12" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
+    <row r="44" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26"/>
+      <c r="B44" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="1"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3052,14 +3075,14 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="15" customHeight="1">
-      <c r="A45" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="50"/>
+    <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="56"/>
       <c r="F45" s="1"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3082,14 +3105,14 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="83.25" customHeight="1">
-      <c r="A46" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="50"/>
+    <row r="46" spans="1:26" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="56"/>
       <c r="F46" s="1"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -3112,19 +3135,19 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="12" customHeight="1">
-      <c r="A47" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="51" t="str">
+    <row r="47" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Projeto.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D47" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="25"/>
+      <c r="D47" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="27"/>
       <c r="F47" s="1"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3147,12 +3170,12 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="12" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+    <row r="48" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="1"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -3175,12 +3198,12 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="12" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+    <row r="49" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="1"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -3203,12 +3226,12 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="12" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+    <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="1"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -3231,12 +3254,12 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="12" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+    <row r="51" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="1"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -3259,14 +3282,14 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="12" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
+    <row r="52" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="26"/>
+      <c r="B52" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="1"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -3289,14 +3312,14 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A53" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="50"/>
+    <row r="53" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="1"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -3319,19 +3342,19 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="12" customHeight="1">
-      <c r="A54" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="51" t="str">
+    <row r="54" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Monitoramento%20do%20Cronograma.xlsx","X")</f>
         <v>X</v>
       </c>
-      <c r="D54" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="25"/>
+      <c r="D54" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="27"/>
       <c r="F54" s="1"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -3354,12 +3377,12 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="12" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+    <row r="55" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="1"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -3382,12 +3405,12 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="12" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+    <row r="56" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="1"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -3410,12 +3433,12 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="12" customHeight="1">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+    <row r="57" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="1"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -3438,12 +3461,12 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="12" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+    <row r="58" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="1"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -3466,14 +3489,14 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="12" customHeight="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="30"/>
+    <row r="59" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="26"/>
+      <c r="B59" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="1"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3496,14 +3519,14 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A60" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="50"/>
+    <row r="60" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="56"/>
       <c r="F60" s="1"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -3526,20 +3549,19 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="12" customHeight="1">
-      <c r="A61" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="51" t="str">
+    <row r="61" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Monitoramento%20do%20Cronograma.xlsx","X")</f>
         <v>X</v>
       </c>
-      <c r="D61" s="72" t="str">
-        <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Monitoramento%20do%20Cronograma.xlsx","X")</f>
-        <v>X</v>
-      </c>
-      <c r="E61" s="25"/>
+      <c r="D61" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="27"/>
       <c r="F61" s="1"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -3562,12 +3584,12 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="12" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+    <row r="62" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="1"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -3590,12 +3612,12 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="12" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+    <row r="63" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="1"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -3618,12 +3640,12 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="12" customHeight="1">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+    <row r="64" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="1"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3646,12 +3668,12 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="12" customHeight="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+    <row r="65" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="1"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -3674,14 +3696,14 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="12" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="30"/>
+    <row r="66" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="26"/>
+      <c r="B66" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="1"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -3704,14 +3726,14 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="60.75" customHeight="1">
-      <c r="A67" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="50"/>
+    <row r="67" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="1"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -3734,19 +3756,19 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="12" customHeight="1">
-      <c r="A68" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="51" t="str">
+    <row r="68" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Recursos%20Humanos.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D68" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E68" s="25"/>
+      <c r="D68" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="27"/>
       <c r="F68" s="1"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -3769,19 +3791,19 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="12" customHeight="1">
-      <c r="A69" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="51" t="str">
+    <row r="69" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="27"/>
+      <c r="C69" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Projeto.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D69" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="25"/>
+      <c r="D69" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="27"/>
       <c r="F69" s="1"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -3804,12 +3826,12 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="12" customHeight="1">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
+    <row r="70" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="26"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="1"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -3832,12 +3854,12 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="12" customHeight="1">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+    <row r="71" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="1"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -3860,12 +3882,12 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="12" customHeight="1">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+    <row r="72" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
       <c r="F72" s="1"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -3888,14 +3910,14 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="12" customHeight="1">
-      <c r="A73" s="24"/>
-      <c r="B73" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="30"/>
+    <row r="73" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="26"/>
+      <c r="B73" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="1"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -3918,14 +3940,14 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="65.25" customHeight="1">
-      <c r="A74" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="50"/>
+    <row r="74" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="56"/>
       <c r="F74" s="1"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -3948,19 +3970,19 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="12" customHeight="1">
-      <c r="A75" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="25"/>
-      <c r="C75" s="51" t="str">
+    <row r="75" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GPR/Plano%20de%20Recursos%20Humanos.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D75" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="25"/>
+      <c r="D75" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="27"/>
       <c r="F75" s="1"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -3983,12 +4005,12 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="12" customHeight="1">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+    <row r="76" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="26"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
       <c r="F76" s="1"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -4011,12 +4033,12 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="12" customHeight="1">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+    <row r="77" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="26"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="1"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -4039,12 +4061,12 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="12" customHeight="1">
-      <c r="A78" s="24"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+    <row r="78" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
       <c r="F78" s="1"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -4067,12 +4089,12 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="12" customHeight="1">
-      <c r="A79" s="24"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+    <row r="79" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="26"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
       <c r="F79" s="1"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -4095,14 +4117,14 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="12" customHeight="1">
-      <c r="A80" s="24"/>
-      <c r="B80" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="30"/>
+    <row r="80" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="26"/>
+      <c r="B80" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="1"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -4125,14 +4147,14 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="59.25" customHeight="1">
-      <c r="A81" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="50"/>
+    <row r="81" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="56"/>
       <c r="F81" s="1"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -4155,20 +4177,20 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="12" customHeight="1">
-      <c r="A82" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="51" t="str">
+    <row r="82" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D82" s="69" t="str">
+      <c r="D82" s="68" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="E82" s="25"/>
+      <c r="E82" s="27"/>
       <c r="F82" s="1"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -4191,12 +4213,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="12" customHeight="1">
-      <c r="A83" s="24"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+    <row r="83" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="26"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="1"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -4219,12 +4241,12 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="12" customHeight="1">
-      <c r="A84" s="24"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
+    <row r="84" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="26"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="1"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -4247,12 +4269,12 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="12" customHeight="1">
-      <c r="A85" s="24"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
+    <row r="85" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="26"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="1"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -4275,12 +4297,12 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="12" customHeight="1">
-      <c r="A86" s="24"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
+    <row r="86" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="26"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
       <c r="F86" s="1"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -4303,14 +4325,14 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="12" customHeight="1">
-      <c r="A87" s="24"/>
-      <c r="B87" s="28" t="s">
+    <row r="87" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="26"/>
+      <c r="B87" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="30"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="34"/>
       <c r="F87" s="1"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -4333,14 +4355,14 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="71.25" customHeight="1">
-      <c r="A88" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="50"/>
+    <row r="88" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="1"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -4363,20 +4385,20 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="12" customHeight="1">
-      <c r="A89" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="51" t="str">
+    <row r="89" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="27"/>
+      <c r="C89" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D89" s="70" t="str">
+      <c r="D89" s="72" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/Documento%20de%20Defini%C3%A7%C3%A3o%20de%20Processo%20de%20Garantia%20de%20Qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="E89" s="25"/>
+      <c r="E89" s="27"/>
       <c r="F89" s="1"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -4399,12 +4421,12 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="12" customHeight="1">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+    <row r="90" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="26"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
       <c r="F90" s="1"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -4427,12 +4449,12 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="12" customHeight="1">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
+    <row r="91" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="26"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
       <c r="F91" s="1"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -4455,12 +4477,12 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="12" customHeight="1">
-      <c r="A92" s="24"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+    <row r="92" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="26"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
       <c r="F92" s="1"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -4483,12 +4505,12 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="12" customHeight="1">
-      <c r="A93" s="24"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
+    <row r="93" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="26"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
       <c r="F93" s="1"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -4511,14 +4533,14 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A94" s="24"/>
-      <c r="B94" s="28" t="s">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="26"/>
+      <c r="B94" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="30"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="34"/>
       <c r="F94" s="1"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -4541,14 +4563,14 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="69.75" customHeight="1">
-      <c r="A95" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="50"/>
+    <row r="95" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="56"/>
       <c r="F95" s="1"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -4571,19 +4593,19 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="12" customHeight="1">
-      <c r="A96" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="51" t="str">
+    <row r="96" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="27"/>
+      <c r="C96" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20auditoria%20de%20qualidade.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D96" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="25"/>
+      <c r="D96" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="27"/>
       <c r="F96" s="1"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -4606,12 +4628,12 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="12" customHeight="1">
-      <c r="A97" s="24"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
+    <row r="97" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="26"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
       <c r="F97" s="1"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -4634,12 +4656,12 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="12" customHeight="1">
-      <c r="A98" s="24"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
+    <row r="98" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
       <c r="F98" s="1"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -4662,12 +4684,12 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="12" customHeight="1">
-      <c r="A99" s="24"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+    <row r="99" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="26"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
       <c r="F99" s="1"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -4690,12 +4712,12 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="12" customHeight="1">
-      <c r="A100" s="24"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
+    <row r="100" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="26"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
       <c r="F100" s="1"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -4718,14 +4740,14 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="12" customHeight="1">
-      <c r="A101" s="24"/>
-      <c r="B101" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="30"/>
+    <row r="101" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="26"/>
+      <c r="B101" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="34"/>
       <c r="F101" s="1"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -4748,14 +4770,14 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="60" customHeight="1">
-      <c r="A102" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="50"/>
+    <row r="102" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="56"/>
       <c r="F102" s="1"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -4778,19 +4800,19 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="12" customHeight="1">
-      <c r="A103" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="51" t="str">
+    <row r="103" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="27"/>
+      <c r="C103" s="36" t="str">
         <f>HYPERLINK("https://github.com/gilmarfilho/ProcessoDeSoftware/blob/master/TEMPLATES/TEMPLATES%20GQA/Documento%20de%20acompanhamento%20de%20n%C3%A3o-conformidades.docx","X")</f>
         <v>X</v>
       </c>
-      <c r="D103" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="E103" s="25"/>
+      <c r="D103" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="27"/>
       <c r="F103" s="1"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -4813,12 +4835,12 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="12" customHeight="1">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
+    <row r="104" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="26"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
       <c r="F104" s="1"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -4841,12 +4863,12 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="12" customHeight="1">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
+    <row r="105" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="26"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
       <c r="F105" s="1"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -4869,12 +4891,12 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="12" customHeight="1">
-      <c r="A106" s="24"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
+    <row r="106" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="26"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
       <c r="F106" s="1"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -4897,12 +4919,12 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="12" customHeight="1">
-      <c r="A107" s="24"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
+    <row r="107" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="26"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
       <c r="F107" s="1"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -4925,14 +4947,14 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="12" customHeight="1">
-      <c r="A108" s="24"/>
-      <c r="B108" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="30"/>
+    <row r="108" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="26"/>
+      <c r="B108" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="34"/>
       <c r="F108" s="1"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -4955,25 +4977,28 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="12" customHeight="1"/>
+    <row r="110" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D96" r:id="rId1"/>
-    <hyperlink ref="D103" r:id="rId2"/>
-    <hyperlink ref="D75" r:id="rId3"/>
-    <hyperlink ref="D68" r:id="rId4"/>
-    <hyperlink ref="D69" r:id="rId5"/>
-    <hyperlink ref="D54" r:id="rId6"/>
-    <hyperlink ref="D47" r:id="rId7"/>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D20" r:id="rId5"/>
+    <hyperlink ref="D21" r:id="rId6"/>
+    <hyperlink ref="D28" r:id="rId7"/>
     <hyperlink ref="D39" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9"/>
-    <hyperlink ref="D7" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
-    <hyperlink ref="D20" r:id="rId12"/>
-    <hyperlink ref="D21" r:id="rId13"/>
-    <hyperlink ref="D28" r:id="rId14"/>
+    <hyperlink ref="D40" r:id="rId9"/>
+    <hyperlink ref="D47" r:id="rId10"/>
+    <hyperlink ref="D54" r:id="rId11"/>
+    <hyperlink ref="D61" r:id="rId12"/>
+    <hyperlink ref="D68" r:id="rId13"/>
+    <hyperlink ref="D69" r:id="rId14"/>
+    <hyperlink ref="D75" r:id="rId15"/>
+    <hyperlink ref="D96" r:id="rId16"/>
+    <hyperlink ref="D103" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>